--- a/Test Cases For Bank Account.xlsx
+++ b/Test Cases For Bank Account.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numai\OneDrive\Desktop\Learning\Test cases for dbank demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apoor\Downloads\dbank-demo-testing-project-main\dbank-demo-testing-project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A3E85-5EEE-4AD7-BABB-B7B63A51D012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A6BCB-48CA-43C5-BA7D-0069AD37E1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF4E4C7B-D832-4A21-9829-55FB78FB23A9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{BF4E4C7B-D832-4A21-9829-55FB78FB23A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,6 +696,16 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -734,16 +744,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,7 +868,26 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>By: NUMAIRA ZAIB</a:t>
+            <a:t>By: APOORV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="9600" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> JAIN</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="7200" b="0" cap="none" spc="0">
             <a:ln w="0"/>
@@ -891,102 +910,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>251246</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1946432</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112882</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B4619B-1B27-BEEA-4E8C-CA1EEA222C7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="251246" y="104991"/>
-          <a:ext cx="1695186" cy="1488348"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2072130</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>69366</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641137</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>77257</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6819192C-F5F5-4B2F-A0FA-61B7067BE9C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16528359" y="69366"/>
-          <a:ext cx="1704092" cy="1488348"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1289,22 +1212,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2746BB-16F7-44E0-9526-32368B8E2459}">
   <dimension ref="A9:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.1328125" customWidth="1"/>
+    <col min="4" max="4" width="47.46484375" customWidth="1"/>
+    <col min="5" max="5" width="46.86328125" customWidth="1"/>
     <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1312,7 +1235,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="52.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1359,7 +1282,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="46.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1437,7 +1360,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="46.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1461,7 +1384,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1408,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
@@ -1509,7 +1432,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -1533,7 +1456,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="97.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1557,7 +1480,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1581,7 +1504,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="64.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -1605,7 +1528,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -1629,7 +1552,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
@@ -1653,7 +1576,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>73</v>
       </c>
@@ -1677,7 +1600,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="61.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>79</v>
       </c>
@@ -1701,7 +1624,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>83</v>
       </c>
@@ -1725,7 +1648,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>88</v>
       </c>
@@ -1749,7 +1672,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -1773,7 +1696,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>100</v>
       </c>
@@ -1797,7 +1720,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="46.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>106</v>
       </c>
@@ -1821,7 +1744,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="36" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>111</v>
       </c>
@@ -1845,7 +1768,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>116</v>
       </c>
@@ -1869,7 +1792,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -1893,7 +1816,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="40.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>124</v>
       </c>
@@ -1917,7 +1840,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="54" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>129</v>
       </c>
@@ -1941,7 +1864,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="72" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>134</v>
       </c>
@@ -1965,7 +1888,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>139</v>
       </c>
@@ -1989,7 +1912,7 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="108" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="108" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>144</v>
       </c>
@@ -2013,7 +1936,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>154</v>
       </c>
@@ -2037,7 +1960,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="90" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>155</v>
       </c>
@@ -2061,7 +1984,7 @@
       </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2071,7 +1994,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2081,7 +2004,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2091,7 +2014,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2101,7 +2024,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2111,7 +2034,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2121,7 +2044,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2131,7 +2054,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2141,7 +2064,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2151,7 +2074,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2161,7 +2084,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2171,7 +2094,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2181,7 +2104,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2191,7 +2114,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2201,7 +2124,7 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2211,7 +2134,7 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2221,7 +2144,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2231,7 +2154,7 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2241,7 +2164,7 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2251,7 +2174,7 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2261,7 +2184,7 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2271,7 +2194,7 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2281,7 +2204,7 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2291,7 +2214,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2301,7 +2224,7 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2311,7 +2234,7 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2321,7 +2244,7 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2331,7 +2254,7 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2341,7 +2264,7 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2351,7 +2274,7 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2361,7 +2284,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2371,7 +2294,7 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2381,7 +2304,7 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2391,7 +2314,7 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2401,7 +2324,7 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2411,7 +2334,7 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2421,7 +2344,7 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2431,7 +2354,7 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2441,7 +2364,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2451,7 +2374,7 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2461,7 +2384,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2471,7 +2394,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2481,7 +2404,7 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2491,7 +2414,7 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2501,7 +2424,7 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2511,7 +2434,7 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2521,7 +2444,7 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2531,7 +2454,7 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2541,7 +2464,7 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2551,7 +2474,7 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2561,7 +2484,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2571,7 +2494,7 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2581,7 +2504,7 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2591,7 +2514,7 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2601,7 +2524,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2611,7 +2534,7 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2621,7 +2544,7 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2631,7 +2554,7 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2641,7 +2564,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2651,7 +2574,7 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2661,7 +2584,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2671,7 +2594,7 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2681,7 +2604,7 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2691,7 +2614,7 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2701,7 +2624,7 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2711,7 +2634,7 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2721,7 +2644,7 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2731,7 +2654,7 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2741,7 +2664,7 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2751,7 +2674,7 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2773,23 +2696,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{79A5DE0E-325B-44B8-B9E0-D296669B3BB2}">
-            <xm:f>NOT(ISERROR(SEARCH($I$11,I11)))</xm:f>
-            <xm:f>$I$11</xm:f>
-            <x14:dxf>
-              <font>
-                <color theme="1"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I11</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D1BA3F52-C3E2-46EF-A95E-51AAF8E4C93B}">
             <xm:f>NOT(ISERROR(SEARCH($I$12,G11)))</xm:f>
@@ -2849,6 +2755,23 @@
           </x14:cfRule>
           <xm:sqref>G11:G110</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{79A5DE0E-325B-44B8-B9E0-D296669B3BB2}">
+            <xm:f>NOT(ISERROR(SEARCH($I$11,I11)))</xm:f>
+            <xm:f>$I$11</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I11</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
